--- a/Concentration/2017-08-30.xlsx
+++ b/Concentration/2017-08-30.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>2017-08-30 16:43</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>2017-08-30 17:18</t>
+  </si>
+  <si>
+    <t>2017-08-30 17:34</t>
+  </si>
+  <si>
+    <t>2017-08-30 17:35</t>
   </si>
 </sst>
 </file>
@@ -586,6 +592,28 @@
         <v>1.1299697500072123</v>
       </c>
     </row>
+    <row r="162"/>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.1814509643707614</v>
+      </c>
+    </row>
+    <row r="166"/>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1.1380877768453765</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
